--- a/Методы.xlsx
+++ b/Методы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80702A3-2F55-4F15-8D0F-DC726EF38C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B58C4-4DB1-4462-97E8-CBEBB17B38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Создание словаря.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Словари</t>
   </si>
   <si>
-    <t>dict.fromkeys([ключ], значение)</t>
-  </si>
-  <si>
     <t>dict.clear()</t>
   </si>
   <si>
     <t>Очищает словарь.</t>
+  </si>
+  <si>
+    <t>dict.copy()</t>
+  </si>
+  <si>
+    <t>Возвращает копию словаря.</t>
+  </si>
+  <si>
+    <t>dict.fromkeys(seq[, value])</t>
+  </si>
+  <si>
+    <t>Создает словарь с ключами из seq и значением value (по умолчанию None).</t>
+  </si>
+  <si>
+    <t>dict.get(key[, default])</t>
+  </si>
+  <si>
+    <t>Возвращает значение ключа, но если его нет, не бросает исключение, а возвращает default (по умолчанию None).</t>
+  </si>
+  <si>
+    <t>dict.items()</t>
+  </si>
+  <si>
+    <t>dict.keys()</t>
+  </si>
+  <si>
+    <t>dict.pop(key[, default])</t>
+  </si>
+  <si>
+    <t>dict.popitem()</t>
+  </si>
+  <si>
+    <t>dict.setdefault(key[, default])</t>
+  </si>
+  <si>
+    <t>dict.update([other])</t>
+  </si>
+  <si>
+    <t>dict.values()</t>
+  </si>
+  <si>
+    <t>Возвращает пары (ключ, значение).</t>
+  </si>
+  <si>
+    <t>Возвращает ключи в словаре.</t>
+  </si>
+  <si>
+    <t>Удаляет ключ и возвращает значение. Если ключа нет, возвращает default (по умолчанию бросает исключение).</t>
+  </si>
+  <si>
+    <t>Удаляет и возвращает пару (ключ, значение). Если словарь пуст, бросает исключение KeyError. Помните, что словари неупорядочены.</t>
+  </si>
+  <si>
+    <t>Возвращает значение ключа, но если его нет, не бросает исключение, а создает ключ со значением default (по умолчанию None).</t>
+  </si>
+  <si>
+    <t>Обновляет словарь, добавляя пары (ключ, значение) из other. Существующие ключи перезаписываются. Возвращает None (не новый словарь!).</t>
+  </si>
+  <si>
+    <t>Возвращает значения в словаре.</t>
   </si>
 </sst>
 </file>
@@ -357,37 +411,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Методы.xlsx
+++ b/Методы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B58C4-4DB1-4462-97E8-CBEBB17B38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75FC7EC-19C9-45BD-AFF4-C4E7CD6D14A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="1605" windowWidth="23910" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Словари</t>
   </si>
@@ -94,6 +94,111 @@
   </si>
   <si>
     <t>Возвращает значения в словаре.</t>
+  </si>
+  <si>
+    <t>Множества</t>
+  </si>
+  <si>
+    <t>set.isdisjoint(other)</t>
+  </si>
+  <si>
+    <t>Истина, если set и other не имеют общих элементов.</t>
+  </si>
+  <si>
+    <t>set == other</t>
+  </si>
+  <si>
+    <t>set.issubset(other) или set &lt;= other</t>
+  </si>
+  <si>
+    <t>Все элементы set принадлежат other, все элементы other принадлежат set.</t>
+  </si>
+  <si>
+    <t>Все элементы set принадлежат other.</t>
+  </si>
+  <si>
+    <t>Все элементы other принадлежат set.</t>
+  </si>
+  <si>
+    <t>set.issuperset(other) или set &gt;= other</t>
+  </si>
+  <si>
+    <t>set.union(other, …) или set | other | …</t>
+  </si>
+  <si>
+    <t>Объединение нескольких множеств.</t>
+  </si>
+  <si>
+    <t>set.intersection(other, …) или set &amp; other &amp; …</t>
+  </si>
+  <si>
+    <t>Пересечение.</t>
+  </si>
+  <si>
+    <t>set.difference(other, …) или set - other - …</t>
+  </si>
+  <si>
+    <t>Множество из всех элементов set, не принадлежащее ни одному из other.</t>
+  </si>
+  <si>
+    <t>set.symmetric_difference(other) или set ^ other</t>
+  </si>
+  <si>
+    <t>Множество из элементов, встречающихся в одном множестве, но не встречающихся в обоих.</t>
+  </si>
+  <si>
+    <t>set.copy()</t>
+  </si>
+  <si>
+    <t>Копия множества.</t>
+  </si>
+  <si>
+    <t>set.update(other, …) или set |= other |</t>
+  </si>
+  <si>
+    <t>Объединение.</t>
+  </si>
+  <si>
+    <t>set.intersection_update(other, …) или set &amp;= other &amp; …</t>
+  </si>
+  <si>
+    <t>set.difference_update(other, …) или set -= other - …</t>
+  </si>
+  <si>
+    <t>Вычитание.</t>
+  </si>
+  <si>
+    <t>set.symmetric_difference_update(other) или set ^= other</t>
+  </si>
+  <si>
+    <t>set.add(elem)</t>
+  </si>
+  <si>
+    <t>Добавляет элемент в множество.</t>
+  </si>
+  <si>
+    <t>set.remove(elem)</t>
+  </si>
+  <si>
+    <t>Удаляет элемент из множества. KeyError, если такого элемента не существует.</t>
+  </si>
+  <si>
+    <t>set.discard(elem)</t>
+  </si>
+  <si>
+    <t>Удаляет элемент, если он находится в множестве.</t>
+  </si>
+  <si>
+    <t>set.pop()</t>
+  </si>
+  <si>
+    <t>Удаляет первый элемент из множества. Так как множества не упорядочены, нельзя точно сказать, какой элемент будет первым.</t>
+  </si>
+  <si>
+    <t>set.clear()</t>
+  </si>
+  <si>
+    <t>Очистка множества.</t>
   </si>
 </sst>
 </file>
@@ -411,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="127.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -516,6 +621,155 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
